--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2952.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2952.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.165349276728525</v>
+        <v>0.6825852394104004</v>
       </c>
       <c r="B1">
-        <v>2.85118006185762</v>
+        <v>0.5306469202041626</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.549840927124023</v>
       </c>
       <c r="D1">
-        <v>2.14349188745545</v>
+        <v>3.506358861923218</v>
       </c>
       <c r="E1">
-        <v>1.236980678357598</v>
+        <v>0.9730880856513977</v>
       </c>
     </row>
   </sheetData>
